--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\excel\test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB7EB48-38A5-4875-9B38-3339F1DECC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96E0066-EEF5-413B-B397-1B745DDC06D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
   <si>
     <t>Data</t>
   </si>
@@ -179,16 +179,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -234,7 +234,7 @@
                   <a:latin typeface="Calibri"/>
                   <a:cs typeface="Calibri"/>
                 </a:rPr>
-                <a:t>Button 3</a:t>
+                <a:t>Get Report</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -600,10 +600,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:B44"/>
+  <dimension ref="B3:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,9 +652,7 @@
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -668,7 +666,7 @@
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
@@ -687,9 +685,7 @@
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
@@ -779,9 +775,7 @@
       <c r="B37" s="5"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="B38" s="5"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
@@ -804,12 +798,25 @@
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="B43" s="5"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -824,7 +831,7 @@
   <dimension ref="B3:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -861,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -869,7 +876,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -885,7 +892,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -901,7 +908,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -918,16 +925,16 @@
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!BtnReport">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>219075</xdr:colOff>
-                    <xdr:row>0</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\excel\test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96E0066-EEF5-413B-B397-1B745DDC06D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCA15F5-7033-4C25-AF9C-AAFAB1851489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -831,7 +831,7 @@
   <dimension ref="B3:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
